--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_34.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_34.xlsx
@@ -1184,7 +1184,7 @@
         <v>1361974149.3</v>
       </c>
       <c r="F12" s="1">
-        <v>1303578329</v>
+        <v>1305498329</v>
       </c>
       <c r="G12" s="1">
         <v>1240524717.0500007</v>
@@ -1328,7 +1328,7 @@
         <v>-60473972.810000002</v>
       </c>
       <c r="F16" s="1">
-        <v>-53616441.740000002</v>
+        <v>53616441.740000002</v>
       </c>
       <c r="G16" s="1">
         <v>-60834434.380000003</v>
@@ -1403,7 +1403,8 @@
         <v>1447134855.7700002</v>
       </c>
       <c r="F18" s="1">
-        <v>1454068426</v>
+        <f>SUM(F12:F17)</f>
+        <v>1558301310.0099998</v>
       </c>
       <c r="G18" s="1">
         <f>SUM(G12:G17)</f>
@@ -1442,7 +1443,7 @@
         <v>-384700000.00000012</v>
       </c>
       <c r="F19" s="1">
-        <v>-412700000</v>
+        <v>412700000</v>
       </c>
       <c r="G19" s="1">
         <v>-379300000.00000012</v>
@@ -1517,7 +1518,8 @@
         <v>1062434855.7700001</v>
       </c>
       <c r="F21" s="33">
-        <v>1038368426</v>
+        <f>SUM(F18:F20)</f>
+        <v>1971001310.0099998</v>
       </c>
       <c r="G21" s="33">
         <f>SUM(G18:G20)</f>
@@ -1556,7 +1558,7 @@
         <v>-20015625</v>
       </c>
       <c r="F22" s="32">
-        <v>-20015625</v>
+        <v>20015625</v>
       </c>
       <c r="G22" s="32">
         <v>-20015625</v>
@@ -1596,7 +1598,7 @@
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
-        <v>1018352801</v>
+        <v>1991016935.0099998</v>
       </c>
       <c r="G23" s="33">
         <f>SUM(G21:G22)</f>
@@ -1644,7 +1646,7 @@
       </c>
       <c r="F25" s="5">
         <f>F23/F26</f>
-        <v>0.99186653754856602</v>
+        <v>1.9392327213021794</v>
       </c>
       <c r="G25" s="5">
         <f>G23/G26</f>
@@ -1735,11 +1737,11 @@
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>-3.0784812576986641E-2</v>
+        <v>0.89494627984836317</v>
       </c>
       <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
-        <v>-4.8836142941211184E-2</v>
+        <v>-0.51350470153539085</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0199816896833298</v>
+        <v>1.2094549264340526</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
